--- a/Technology/Fortinet.xlsx
+++ b/Technology/Fortinet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Growth Stocks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE06D4FD-4942-DF47-A83B-5AEBD766BBB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEFBD6A9-5930-7849-A258-D92BDB901E4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="30220" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="161">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -513,6 +513,9 @@
   </si>
   <si>
     <t>P/FCF</t>
+  </si>
+  <si>
+    <t>Net Cash</t>
   </si>
 </sst>
 </file>
@@ -855,7 +858,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -944,7 +947,6 @@
     <xf numFmtId="164" fontId="1" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -992,6 +994,12 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2468,10 +2476,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="R2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="R67" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Z25" sqref="Z25"/>
+      <selection pane="bottomRight" activeCell="T96" sqref="T96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2681,16 +2689,16 @@
       <c r="V3" s="27">
         <v>9298000000</v>
       </c>
-      <c r="W3" s="57" t="s">
+      <c r="W3" s="56" t="s">
         <v>110</v>
       </c>
-      <c r="X3" s="58" t="s">
+      <c r="X3" s="57" t="s">
         <v>111</v>
       </c>
-      <c r="Y3" s="58" t="s">
+      <c r="Y3" s="57" t="s">
         <v>112</v>
       </c>
-      <c r="Z3" s="58" t="s">
+      <c r="Z3" s="57" t="s">
         <v>113</v>
       </c>
     </row>
@@ -2779,19 +2787,19 @@
         <f t="shared" si="5"/>
         <v>0.19912303327314929</v>
       </c>
-      <c r="W4" s="59">
+      <c r="W4" s="58">
         <f>(Q4+P4+O4)/3</f>
         <v>0.2295183101073032</v>
       </c>
-      <c r="X4" s="59">
+      <c r="X4" s="58">
         <f>(Q20+P20+O20)/3</f>
         <v>0.29905986543761398</v>
       </c>
-      <c r="Y4" s="59">
+      <c r="Y4" s="58">
         <f>(Q29+P29+O29)/3</f>
         <v>0.24039436187017008</v>
       </c>
-      <c r="Z4" s="59">
+      <c r="Z4" s="58">
         <f>(Q105+P105+O105)/3</f>
         <v>0.27221068045512248</v>
       </c>
@@ -2911,16 +2919,16 @@
       <c r="Q6" s="10">
         <v>2559200000</v>
       </c>
-      <c r="W6" s="57" t="s">
+      <c r="W6" s="56" t="s">
         <v>114</v>
       </c>
-      <c r="X6" s="58" t="s">
+      <c r="X6" s="57" t="s">
         <v>115</v>
       </c>
-      <c r="Y6" s="58" t="s">
+      <c r="Y6" s="57" t="s">
         <v>116</v>
       </c>
-      <c r="Z6" s="58" t="s">
+      <c r="Z6" s="57" t="s">
         <v>117</v>
       </c>
     </row>
@@ -2976,19 +2984,19 @@
       <c r="Q7" s="2">
         <v>0.76570000000000005</v>
       </c>
-      <c r="W7" s="59">
+      <c r="W7" s="58">
         <f>Q7</f>
         <v>0.76570000000000005</v>
       </c>
-      <c r="X7" s="60">
+      <c r="X7" s="59">
         <f>Q21</f>
         <v>0.2155</v>
       </c>
-      <c r="Y7" s="60">
+      <c r="Y7" s="59">
         <f>Q30</f>
         <v>0.18160000000000001</v>
       </c>
-      <c r="Z7" s="60">
+      <c r="Z7" s="59">
         <f>Q106/Q3</f>
         <v>0.36018191610316558</v>
       </c>
@@ -3114,16 +3122,16 @@
         <f t="shared" si="6"/>
         <v>0.12692238645203757</v>
       </c>
-      <c r="W9" s="57" t="s">
+      <c r="W9" s="56" t="s">
         <v>96</v>
       </c>
-      <c r="X9" s="58" t="s">
+      <c r="X9" s="57" t="s">
         <v>97</v>
       </c>
-      <c r="Y9" s="58" t="s">
+      <c r="Y9" s="57" t="s">
         <v>98</v>
       </c>
-      <c r="Z9" s="58" t="s">
+      <c r="Z9" s="57" t="s">
         <v>99</v>
       </c>
     </row>
@@ -3179,19 +3187,19 @@
       <c r="Q10" s="1">
         <v>143500000</v>
       </c>
-      <c r="W10" s="59">
+      <c r="W10" s="58">
         <f>Q9</f>
         <v>0.12692238645203757</v>
       </c>
-      <c r="X10" s="60">
+      <c r="X10" s="59">
         <f>Q13</f>
         <v>0.44557477110885046</v>
       </c>
-      <c r="Y10" s="60">
+      <c r="Y10" s="59">
         <f>Q80</f>
         <v>6.2204535934414461E-2</v>
       </c>
-      <c r="Z10" s="60">
+      <c r="Z10" s="59">
         <f>Q89</f>
         <v>8.853449823469571E-2</v>
       </c>
@@ -3301,16 +3309,16 @@
       <c r="Q12" s="1">
         <v>1489200000</v>
       </c>
-      <c r="W12" s="57" t="s">
+      <c r="W12" s="56" t="s">
         <v>118</v>
       </c>
-      <c r="X12" s="58" t="s">
+      <c r="X12" s="57" t="s">
         <v>119</v>
       </c>
-      <c r="Y12" s="58" t="s">
+      <c r="Y12" s="57" t="s">
         <v>120</v>
       </c>
-      <c r="Z12" s="58" t="s">
+      <c r="Z12" s="57" t="s">
         <v>121</v>
       </c>
     </row>
@@ -3382,15 +3390,15 @@
         <f t="shared" si="7"/>
         <v>0.44557477110885046</v>
       </c>
-      <c r="W13" s="59">
+      <c r="W13" s="58">
         <f>Q28/Q72</f>
         <v>0.7762568760394013</v>
       </c>
-      <c r="X13" s="60">
+      <c r="X13" s="59">
         <f>Q28/Q54</f>
         <v>0.10251558513963271</v>
       </c>
-      <c r="Y13" s="60">
+      <c r="Y13" s="59">
         <f>Q22/(Q72+Q56+Q61)</f>
         <v>0.36743686797356084</v>
       </c>
@@ -3504,16 +3512,16 @@
       <c r="Q15" s="1">
         <v>1913400000</v>
       </c>
-      <c r="W15" s="57" t="s">
+      <c r="W15" s="56" t="s">
         <v>122</v>
       </c>
-      <c r="X15" s="58" t="s">
+      <c r="X15" s="57" t="s">
         <v>157</v>
       </c>
-      <c r="Y15" s="58" t="s">
+      <c r="Y15" s="57" t="s">
         <v>158</v>
       </c>
-      <c r="Z15" s="58" t="s">
+      <c r="Z15" s="57" t="s">
         <v>159</v>
       </c>
     </row>
@@ -3573,15 +3581,15 @@
         <f>(Q35+P35+O35+N35+M35)/5</f>
         <v>-1.0521812686074624E-2</v>
       </c>
-      <c r="X16" s="61">
+      <c r="X16" s="60">
         <f>Y101/Q3</f>
         <v>14.062593501286578</v>
       </c>
-      <c r="Y16" s="61">
+      <c r="Y16" s="60">
         <f>Y101/Q28</f>
         <v>77.455504284772573</v>
       </c>
-      <c r="Z16" s="62">
+      <c r="Z16" s="61">
         <f>Y101/Q106</f>
         <v>39.043030403721545</v>
       </c>
@@ -3639,7 +3647,7 @@
         <v>14900000</v>
       </c>
     </row>
-    <row r="18" spans="1:26" ht="19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" ht="20" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>13</v>
       </c>
@@ -3690,6 +3698,9 @@
       </c>
       <c r="Q18" s="1">
         <v>84400000</v>
+      </c>
+      <c r="W18" s="56" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="19" x14ac:dyDescent="0.25">
@@ -3743,6 +3754,10 @@
       </c>
       <c r="Q19" s="10">
         <v>720200000</v>
+      </c>
+      <c r="W19" s="68">
+        <f>Q40-Q56-Q61</f>
+        <v>1563300000</v>
       </c>
     </row>
     <row r="20" spans="1:26" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -7195,10 +7210,10 @@
       <c r="Q83" s="1">
         <v>-19400000</v>
       </c>
-      <c r="X83" s="65" t="s">
+      <c r="X83" s="64" t="s">
         <v>123</v>
       </c>
-      <c r="Y83" s="66"/>
+      <c r="Y83" s="65"/>
     </row>
     <row r="84" spans="1:25" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -7252,10 +7267,10 @@
       <c r="Q84" s="1">
         <v>-13100000</v>
       </c>
-      <c r="X84" s="67" t="s">
+      <c r="X84" s="66" t="s">
         <v>124</v>
       </c>
-      <c r="Y84" s="68"/>
+      <c r="Y84" s="67"/>
     </row>
     <row r="85" spans="1:25" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -7803,10 +7818,10 @@
         <v>1300000</v>
       </c>
       <c r="Q93" s="1"/>
-      <c r="X93" s="67" t="s">
+      <c r="X93" s="66" t="s">
         <v>131</v>
       </c>
-      <c r="Y93" s="68"/>
+      <c r="Y93" s="67"/>
     </row>
     <row r="94" spans="1:25" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -8097,10 +8112,10 @@
       <c r="Q98" s="35">
         <v>0</v>
       </c>
-      <c r="X98" s="67" t="s">
+      <c r="X98" s="66" t="s">
         <v>135</v>
       </c>
-      <c r="Y98" s="68"/>
+      <c r="Y98" s="67"/>
     </row>
     <row r="99" spans="1:25" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -8453,10 +8468,10 @@
       <c r="Q104" s="11">
         <v>1319100000</v>
       </c>
-      <c r="X104" s="67" t="s">
+      <c r="X104" s="66" t="s">
         <v>140</v>
       </c>
-      <c r="Y104" s="68"/>
+      <c r="Y104" s="67"/>
     </row>
     <row r="105" spans="1:25" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -8689,10 +8704,10 @@
       </c>
     </row>
     <row r="109" spans="1:25" ht="19" x14ac:dyDescent="0.25">
-      <c r="R109" s="63" t="s">
+      <c r="R109" s="62" t="s">
         <v>147</v>
       </c>
-      <c r="S109" s="64"/>
+      <c r="S109" s="63"/>
     </row>
     <row r="110" spans="1:25" ht="20" x14ac:dyDescent="0.25">
       <c r="R110" s="47" t="s">
@@ -8731,44 +8746,45 @@
       </c>
     </row>
     <row r="114" spans="18:19" ht="20" x14ac:dyDescent="0.25">
-      <c r="R114" s="49" t="s">
+      <c r="R114" s="47" t="s">
         <v>151</v>
       </c>
-      <c r="S114" s="50">
-        <v>784070000</v>
+      <c r="S114" s="69">
+        <f>Q34*(1+(5*W16))</f>
+        <v>791545127.5039233</v>
       </c>
     </row>
     <row r="115" spans="18:19" ht="20" x14ac:dyDescent="0.25">
-      <c r="R115" s="51" t="s">
+      <c r="R115" s="50" t="s">
         <v>152</v>
       </c>
-      <c r="S115" s="52">
+      <c r="S115" s="51">
         <f>S113/S114</f>
-        <v>58.475607133179722</v>
+        <v>57.923380097725349</v>
       </c>
     </row>
     <row r="116" spans="18:19" ht="20" x14ac:dyDescent="0.25">
       <c r="R116" s="49" t="s">
         <v>153</v>
       </c>
-      <c r="S116" s="53">
+      <c r="S116" s="52">
         <v>60.37</v>
       </c>
     </row>
     <row r="117" spans="18:19" ht="20" x14ac:dyDescent="0.25">
-      <c r="R117" s="54" t="s">
+      <c r="R117" s="53" t="s">
         <v>154</v>
       </c>
-      <c r="S117" s="55">
+      <c r="S117" s="54">
         <f>S115/S116-1</f>
-        <v>-3.1379706258411022E-2</v>
+        <v>-4.0527081369465812E-2</v>
       </c>
     </row>
     <row r="118" spans="18:19" ht="20" x14ac:dyDescent="0.25">
-      <c r="R118" s="54" t="s">
+      <c r="R118" s="53" t="s">
         <v>155</v>
       </c>
-      <c r="S118" s="56" t="str">
+      <c r="S118" s="55" t="str">
         <f>IF(S115&gt;S116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
